--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrowe\Documents\UW\ThesisNeuralNetworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A6457D-7C36-42AF-8793-1198289F1F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4287A000-5B40-4FBE-B82D-5F46B5A4A3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7420" windowWidth="38620" windowHeight="21820" xr2:uid="{A398527C-3D1D-4945-ADD0-ACDBE1778FAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Participant</t>
   </si>
@@ -88,6 +88,9 @@
   <si>
     <t>Grad</t>
   </si>
+  <si>
+    <t>Most Accepted</t>
+  </si>
 </sst>
 </file>
 
@@ -130,26 +133,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30CF3E8-5F0A-4906-9091-61783EACC900}">
-  <dimension ref="A1:S338"/>
+  <dimension ref="A1:P338"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -481,40 +477,43 @@
     <col min="17" max="17" width="10.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="3"/>
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="M1" s="3"/>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -539,9 +538,9 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -581,9 +580,11 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>0</v>
       </c>
@@ -620,9 +621,11 @@
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>1</v>
       </c>
@@ -659,9 +662,11 @@
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>0</v>
       </c>
@@ -698,11 +703,13 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B7" s="2">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
@@ -738,10 +745,11 @@
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0</v>
       </c>
@@ -778,10 +786,11 @@
       <c r="M8">
         <v>1</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>1</v>
       </c>
@@ -818,10 +827,11 @@
       <c r="M9">
         <v>1</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>0</v>
       </c>
@@ -858,10 +868,12 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2</v>
       </c>
@@ -901,9 +913,11 @@
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0</v>
       </c>
@@ -940,9 +954,11 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>1</v>
       </c>
@@ -979,9 +995,11 @@
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>0</v>
       </c>
@@ -1018,10 +1036,13 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B15" s="2">
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
@@ -1057,9 +1078,11 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>0</v>
       </c>
@@ -1096,7 +1119,9 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="P16" s="8"/>
+      <c r="N16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B17">
@@ -1135,7 +1160,9 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="P17" s="8"/>
+      <c r="N17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B18">
@@ -1174,7 +1201,10 @@
       <c r="M18">
         <v>1</v>
       </c>
-      <c r="P18" s="7"/>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19">
@@ -1216,7 +1246,9 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="P19" s="8"/>
+      <c r="N19">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B20">
@@ -1255,7 +1287,9 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="P20" s="8"/>
+      <c r="N20">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B21">
@@ -1294,7 +1328,9 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="P21" s="8"/>
+      <c r="N21">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B22">
@@ -1333,10 +1369,13 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="P22" s="7"/>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="2">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
@@ -1372,7 +1411,9 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="P23" s="8"/>
+      <c r="N23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B24">
@@ -1411,7 +1452,9 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="P24" s="8"/>
+      <c r="N24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B25">
@@ -1450,7 +1493,9 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="P25" s="8"/>
+      <c r="N25">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B26">
@@ -1489,7 +1534,10 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="P26" s="7"/>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27">
@@ -1531,7 +1579,9 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="P27" s="8"/>
+      <c r="N27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B28">
@@ -1570,7 +1620,9 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="P28" s="8"/>
+      <c r="N28" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B29">
@@ -1609,7 +1661,9 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="P29" s="8"/>
+      <c r="N29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B30">
@@ -1648,10 +1702,13 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="P30" s="7"/>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B31" s="2">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
@@ -1687,7 +1744,9 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="P31" s="8"/>
+      <c r="N31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B32">
@@ -1726,7 +1785,9 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="P32" s="8"/>
+      <c r="N32">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B33">
@@ -1765,7 +1826,9 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="P33" s="8"/>
+      <c r="N33">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B34">
@@ -1804,7 +1867,10 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="P34" s="7"/>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35">
@@ -1846,7 +1912,9 @@
       <c r="M35">
         <v>1</v>
       </c>
-      <c r="P35" s="8"/>
+      <c r="N35">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B36">
@@ -1885,7 +1953,9 @@
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="P36" s="8"/>
+      <c r="N36">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B37">
@@ -1924,7 +1994,9 @@
       <c r="M37">
         <v>1</v>
       </c>
-      <c r="P37" s="8"/>
+      <c r="N37">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B38">
@@ -1963,10 +2035,13 @@
       <c r="M38">
         <v>1</v>
       </c>
-      <c r="P38" s="7"/>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B39" s="2">
+      <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
@@ -2002,7 +2077,9 @@
       <c r="M39">
         <v>1</v>
       </c>
-      <c r="P39" s="8"/>
+      <c r="N39">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B40">
@@ -2041,7 +2118,9 @@
       <c r="M40">
         <v>1</v>
       </c>
-      <c r="P40" s="8"/>
+      <c r="N40">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B41">
@@ -2080,7 +2159,9 @@
       <c r="M41">
         <v>1</v>
       </c>
-      <c r="P41" s="8"/>
+      <c r="N41">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B42">
@@ -2119,7 +2200,10 @@
       <c r="M42">
         <v>1</v>
       </c>
-      <c r="P42" s="7"/>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43">
@@ -2161,7 +2245,9 @@
       <c r="M43">
         <v>1</v>
       </c>
-      <c r="P43" s="8"/>
+      <c r="N43">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B44">
@@ -2200,6 +2286,9 @@
       <c r="M44">
         <v>1</v>
       </c>
+      <c r="N44">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B45">
@@ -2238,6 +2327,9 @@
       <c r="M45">
         <v>1</v>
       </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B46">
@@ -2276,9 +2368,12 @@
       <c r="M46">
         <v>1</v>
       </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="B47" s="2">
+      <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
@@ -2314,6 +2409,9 @@
       <c r="M47">
         <v>1</v>
       </c>
+      <c r="N47">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B48">
@@ -2352,8 +2450,11 @@
       <c r="M48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B49">
         <v>1</v>
       </c>
@@ -2390,8 +2491,11 @@
       <c r="M49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>0</v>
       </c>
@@ -2428,8 +2532,11 @@
       <c r="M50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>7</v>
       </c>
@@ -2469,8 +2576,11 @@
       <c r="M51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B52">
         <v>0</v>
       </c>
@@ -2507,8 +2617,11 @@
       <c r="M52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>1</v>
       </c>
@@ -2545,8 +2658,11 @@
       <c r="M53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B54">
         <v>0</v>
       </c>
@@ -2583,9 +2699,12 @@
       <c r="M54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B55" s="2">
+      <c r="N54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55">
@@ -2621,8 +2740,11 @@
       <c r="M55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>0</v>
       </c>
@@ -2659,8 +2781,11 @@
       <c r="M56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1</v>
       </c>
@@ -2697,8 +2822,11 @@
       <c r="M57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>0</v>
       </c>
@@ -2735,8 +2863,11 @@
       <c r="M58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>8</v>
       </c>
@@ -2776,8 +2907,11 @@
       <c r="M59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>0</v>
       </c>
@@ -2814,8 +2948,11 @@
       <c r="M60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1</v>
       </c>
@@ -2852,8 +2989,11 @@
       <c r="M61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>0</v>
       </c>
@@ -2890,9 +3030,12 @@
       <c r="M62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B63" s="2">
+      <c r="N62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
@@ -2928,8 +3071,11 @@
       <c r="M63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>0</v>
       </c>
@@ -2966,8 +3112,11 @@
       <c r="M64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1</v>
       </c>
@@ -3004,8 +3153,11 @@
       <c r="M65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>0</v>
       </c>
@@ -3042,8 +3194,11 @@
       <c r="M66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>9</v>
       </c>
@@ -3083,8 +3238,11 @@
       <c r="M67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>0</v>
       </c>
@@ -3121,8 +3279,11 @@
       <c r="M68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1</v>
       </c>
@@ -3159,8 +3320,11 @@
       <c r="M69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>0</v>
       </c>
@@ -3197,9 +3361,12 @@
       <c r="M70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B71" s="2">
+      <c r="N70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
@@ -3235,8 +3402,11 @@
       <c r="M71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>0</v>
       </c>
@@ -3273,8 +3443,11 @@
       <c r="M72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1</v>
       </c>
@@ -3311,8 +3484,11 @@
       <c r="M73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>0</v>
       </c>
@@ -3349,8 +3525,11 @@
       <c r="M74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>10</v>
       </c>
@@ -3390,8 +3569,11 @@
       <c r="M75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>0</v>
       </c>
@@ -3428,8 +3610,11 @@
       <c r="M76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1</v>
       </c>
@@ -3466,8 +3651,11 @@
       <c r="M77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>0</v>
       </c>
@@ -3504,9 +3692,12 @@
       <c r="M78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B79" s="2">
+      <c r="N78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B79">
         <v>1</v>
       </c>
       <c r="C79">
@@ -3542,8 +3733,11 @@
       <c r="M79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>0</v>
       </c>
@@ -3580,8 +3774,11 @@
       <c r="M80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1</v>
       </c>
@@ -3618,8 +3815,11 @@
       <c r="M81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>0</v>
       </c>
@@ -3656,8 +3856,11 @@
       <c r="M82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>11</v>
       </c>
@@ -3697,8 +3900,11 @@
       <c r="M83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>0</v>
       </c>
@@ -3735,8 +3941,11 @@
       <c r="M84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1</v>
       </c>
@@ -3773,8 +3982,11 @@
       <c r="M85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>0</v>
       </c>
@@ -3811,9 +4023,12 @@
       <c r="M86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B87" s="2">
+      <c r="N86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
@@ -3849,8 +4064,11 @@
       <c r="M87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>0</v>
       </c>
@@ -3887,8 +4105,11 @@
       <c r="M88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1</v>
       </c>
@@ -3925,8 +4146,11 @@
       <c r="M89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>0</v>
       </c>
@@ -3963,8 +4187,11 @@
       <c r="M90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>12</v>
       </c>
@@ -4004,8 +4231,11 @@
       <c r="M91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>0</v>
       </c>
@@ -4042,8 +4272,11 @@
       <c r="M92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1</v>
       </c>
@@ -4080,8 +4313,11 @@
       <c r="M93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>0</v>
       </c>
@@ -4118,9 +4354,12 @@
       <c r="M94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B95" s="2">
+      <c r="N94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
@@ -4156,8 +4395,11 @@
       <c r="M95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>0</v>
       </c>
@@ -4194,8 +4436,11 @@
       <c r="M96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1</v>
       </c>
@@ -4232,8 +4477,11 @@
       <c r="M97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>0</v>
       </c>
@@ -4270,8 +4518,11 @@
       <c r="M98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>13</v>
       </c>
@@ -4311,8 +4562,11 @@
       <c r="M99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>0</v>
       </c>
@@ -4349,8 +4603,11 @@
       <c r="M100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>1</v>
       </c>
@@ -4387,8 +4644,11 @@
       <c r="M101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>0</v>
       </c>
@@ -4425,9 +4685,12 @@
       <c r="M102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B103" s="2">
+      <c r="N102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
@@ -4463,8 +4726,11 @@
       <c r="M103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>0</v>
       </c>
@@ -4501,8 +4767,11 @@
       <c r="M104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>1</v>
       </c>
@@ -4539,8 +4808,11 @@
       <c r="M105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>0</v>
       </c>
@@ -4577,8 +4849,11 @@
       <c r="M106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>14</v>
       </c>
@@ -4618,8 +4893,11 @@
       <c r="M107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B108">
         <v>0</v>
       </c>
@@ -4656,8 +4934,11 @@
       <c r="M108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B109">
         <v>1</v>
       </c>
@@ -4694,8 +4975,11 @@
       <c r="M109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B110">
         <v>0</v>
       </c>
@@ -4732,9 +5016,12 @@
       <c r="M110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B111" s="2">
+      <c r="N110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B111">
         <v>1</v>
       </c>
       <c r="C111">
@@ -4770,8 +5057,11 @@
       <c r="M111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B112">
         <v>0</v>
       </c>
@@ -4808,8 +5098,11 @@
       <c r="M112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B113">
         <v>1</v>
       </c>
@@ -4846,8 +5139,11 @@
       <c r="M113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B114">
         <v>0</v>
       </c>
@@ -4884,8 +5180,11 @@
       <c r="M114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>15</v>
       </c>
@@ -4925,8 +5224,11 @@
       <c r="M115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B116">
         <v>0</v>
       </c>
@@ -4963,8 +5265,11 @@
       <c r="M116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B117">
         <v>1</v>
       </c>
@@ -5001,8 +5306,11 @@
       <c r="M117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B118">
         <v>0</v>
       </c>
@@ -5039,9 +5347,12 @@
       <c r="M118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B119" s="2">
+      <c r="N118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
@@ -5077,8 +5388,11 @@
       <c r="M119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B120">
         <v>0</v>
       </c>
@@ -5115,8 +5429,11 @@
       <c r="M120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B121">
         <v>1</v>
       </c>
@@ -5153,8 +5470,11 @@
       <c r="M121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B122">
         <v>0</v>
       </c>
@@ -5191,8 +5511,11 @@
       <c r="M122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>16</v>
       </c>
@@ -5232,8 +5555,11 @@
       <c r="M123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B124">
         <v>0</v>
       </c>
@@ -5270,8 +5596,11 @@
       <c r="M124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B125">
         <v>1</v>
       </c>
@@ -5308,8 +5637,11 @@
       <c r="M125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B126">
         <v>0</v>
       </c>
@@ -5346,9 +5678,12 @@
       <c r="M126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B127" s="2">
+      <c r="N126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B127">
         <v>1</v>
       </c>
       <c r="C127">
@@ -5384,8 +5719,11 @@
       <c r="M127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B128">
         <v>0</v>
       </c>
@@ -5422,8 +5760,11 @@
       <c r="M128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B129">
         <v>1</v>
       </c>
@@ -5460,8 +5801,11 @@
       <c r="M129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B130">
         <v>0</v>
       </c>
@@ -5498,8 +5842,11 @@
       <c r="M130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>17</v>
       </c>
@@ -5539,8 +5886,11 @@
       <c r="M131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B132">
         <v>0</v>
       </c>
@@ -5577,8 +5927,11 @@
       <c r="M132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B133">
         <v>1</v>
       </c>
@@ -5615,8 +5968,11 @@
       <c r="M133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B134">
         <v>0</v>
       </c>
@@ -5653,9 +6009,12 @@
       <c r="M134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B135" s="2">
+      <c r="N134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
@@ -5691,8 +6050,11 @@
       <c r="M135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B136">
         <v>0</v>
       </c>
@@ -5729,8 +6091,11 @@
       <c r="M136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B137">
         <v>1</v>
       </c>
@@ -5767,8 +6132,11 @@
       <c r="M137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B138">
         <v>0</v>
       </c>
@@ -5805,8 +6173,11 @@
       <c r="M138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>18</v>
       </c>
@@ -5846,8 +6217,11 @@
       <c r="M139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N139" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B140">
         <v>0</v>
       </c>
@@ -5884,8 +6258,11 @@
       <c r="M140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N140" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B141">
         <v>1</v>
       </c>
@@ -5922,8 +6299,11 @@
       <c r="M141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N141" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B142">
         <v>0</v>
       </c>
@@ -5960,9 +6340,12 @@
       <c r="M142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B143" s="2">
+      <c r="N142" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B143">
         <v>1</v>
       </c>
       <c r="C143">
@@ -5998,8 +6381,11 @@
       <c r="M143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N143" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B144">
         <v>0</v>
       </c>
@@ -6036,6 +6422,9 @@
       <c r="M144">
         <v>1</v>
       </c>
+      <c r="N144" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B145">
@@ -6074,6 +6463,9 @@
       <c r="M145">
         <v>1</v>
       </c>
+      <c r="N145" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B146">
@@ -6111,6 +6503,9 @@
       </c>
       <c r="M146">
         <v>1</v>
+      </c>
+      <c r="N146" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.45">
@@ -6153,6 +6548,9 @@
       <c r="M147">
         <v>0</v>
       </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B148">
@@ -6191,6 +6589,9 @@
       <c r="M148">
         <v>0</v>
       </c>
+      <c r="N148">
+        <v>4</v>
+      </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B149">
@@ -6229,6 +6630,9 @@
       <c r="M149">
         <v>0</v>
       </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B150">
@@ -6267,9 +6671,12 @@
       <c r="M150">
         <v>0</v>
       </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B151" s="2">
+      <c r="B151">
         <v>1</v>
       </c>
       <c r="C151">
@@ -6305,6 +6712,9 @@
       <c r="M151">
         <v>0</v>
       </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B152">
@@ -6343,6 +6753,9 @@
       <c r="M152">
         <v>0</v>
       </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B153">
@@ -6381,7 +6794,9 @@
       <c r="M153">
         <v>0</v>
       </c>
-      <c r="N153" s="4"/>
+      <c r="N153">
+        <v>4</v>
+      </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B154">
@@ -6420,7 +6835,9 @@
       <c r="M154">
         <v>0</v>
       </c>
-      <c r="N154" s="4"/>
+      <c r="N154">
+        <v>4</v>
+      </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A155">
@@ -6462,7 +6879,9 @@
       <c r="M155">
         <v>0</v>
       </c>
-      <c r="N155" s="5"/>
+      <c r="N155">
+        <v>4</v>
+      </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B156">
@@ -6501,7 +6920,9 @@
       <c r="M156">
         <v>0</v>
       </c>
-      <c r="N156" s="4"/>
+      <c r="N156">
+        <v>4</v>
+      </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B157">
@@ -6540,7 +6961,9 @@
       <c r="M157">
         <v>0</v>
       </c>
-      <c r="N157" s="4"/>
+      <c r="N157">
+        <v>4</v>
+      </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B158">
@@ -6579,10 +7002,12 @@
       <c r="M158">
         <v>0</v>
       </c>
-      <c r="N158" s="4"/>
+      <c r="N158">
+        <v>4</v>
+      </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B159" s="2">
+      <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
@@ -6618,7 +7043,9 @@
       <c r="M159">
         <v>0</v>
       </c>
-      <c r="N159" s="4"/>
+      <c r="N159">
+        <v>4</v>
+      </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B160">
@@ -6657,7 +7084,9 @@
       <c r="M160">
         <v>0</v>
       </c>
-      <c r="N160" s="4"/>
+      <c r="N160">
+        <v>4</v>
+      </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B161">
@@ -6696,7 +7125,9 @@
       <c r="M161">
         <v>0</v>
       </c>
-      <c r="N161" s="4"/>
+      <c r="N161">
+        <v>4</v>
+      </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B162">
@@ -6735,7 +7166,9 @@
       <c r="M162">
         <v>0</v>
       </c>
-      <c r="N162" s="4"/>
+      <c r="N162">
+        <v>4</v>
+      </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A163">
@@ -6777,7 +7210,9 @@
       <c r="M163">
         <v>0</v>
       </c>
-      <c r="N163" s="4"/>
+      <c r="N163">
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B164">
@@ -6816,6 +7251,9 @@
       <c r="M164">
         <v>0</v>
       </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B165">
@@ -6854,6 +7292,9 @@
       <c r="M165">
         <v>0</v>
       </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B166">
@@ -6892,9 +7333,12 @@
       <c r="M166">
         <v>0</v>
       </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B167" s="2">
+      <c r="B167">
         <v>1</v>
       </c>
       <c r="C167">
@@ -6930,6 +7374,9 @@
       <c r="M167">
         <v>0</v>
       </c>
+      <c r="N167">
+        <v>4</v>
+      </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B168">
@@ -6968,6 +7415,9 @@
       <c r="M168">
         <v>0</v>
       </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B169">
@@ -7006,6 +7456,9 @@
       <c r="M169">
         <v>0</v>
       </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B170">
@@ -7043,6 +7496,9 @@
       </c>
       <c r="M170">
         <v>0</v>
+      </c>
+      <c r="N170">
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.45">
@@ -7085,6 +7541,9 @@
       <c r="M171">
         <v>0</v>
       </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B172">
@@ -7123,6 +7582,9 @@
       <c r="M172">
         <v>0</v>
       </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B173">
@@ -7161,6 +7623,9 @@
       <c r="M173">
         <v>0</v>
       </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B174">
@@ -7199,9 +7664,12 @@
       <c r="M174">
         <v>0</v>
       </c>
+      <c r="N174">
+        <v>4</v>
+      </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B175" s="2">
+      <c r="B175">
         <v>1</v>
       </c>
       <c r="C175">
@@ -7237,6 +7705,9 @@
       <c r="M175">
         <v>0</v>
       </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B176">
@@ -7275,8 +7746,11 @@
       <c r="M176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B177">
         <v>1</v>
       </c>
@@ -7313,8 +7787,11 @@
       <c r="M177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B178">
         <v>0</v>
       </c>
@@ -7351,8 +7828,11 @@
       <c r="M178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>23</v>
       </c>
@@ -7392,8 +7872,11 @@
       <c r="M179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B180">
         <v>0</v>
       </c>
@@ -7430,8 +7913,11 @@
       <c r="M180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B181">
         <v>1</v>
       </c>
@@ -7468,8 +7954,11 @@
       <c r="M181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B182">
         <v>0</v>
       </c>
@@ -7506,9 +7995,12 @@
       <c r="M182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B183" s="2">
+      <c r="N182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B183">
         <v>1</v>
       </c>
       <c r="C183">
@@ -7544,8 +8036,11 @@
       <c r="M183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B184">
         <v>0</v>
       </c>
@@ -7582,8 +8077,11 @@
       <c r="M184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B185">
         <v>1</v>
       </c>
@@ -7620,8 +8118,11 @@
       <c r="M185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B186">
         <v>0</v>
       </c>
@@ -7658,8 +8159,11 @@
       <c r="M186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>24</v>
       </c>
@@ -7699,8 +8203,11 @@
       <c r="M187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B188">
         <v>0</v>
       </c>
@@ -7737,8 +8244,11 @@
       <c r="M188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B189">
         <v>1</v>
       </c>
@@ -7775,8 +8285,11 @@
       <c r="M189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B190">
         <v>0</v>
       </c>
@@ -7813,9 +8326,12 @@
       <c r="M190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B191" s="2">
+      <c r="N190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
@@ -7851,8 +8367,11 @@
       <c r="M191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B192">
         <v>0</v>
       </c>
@@ -7889,8 +8408,11 @@
       <c r="M192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B193">
         <v>1</v>
       </c>
@@ -7927,8 +8449,11 @@
       <c r="M193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B194">
         <v>0</v>
       </c>
@@ -7965,8 +8490,11 @@
       <c r="M194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>25</v>
       </c>
@@ -8006,8 +8534,11 @@
       <c r="M195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B196">
         <v>0</v>
       </c>
@@ -8044,8 +8575,11 @@
       <c r="M196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B197">
         <v>1</v>
       </c>
@@ -8082,8 +8616,11 @@
       <c r="M197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B198">
         <v>0</v>
       </c>
@@ -8120,9 +8657,12 @@
       <c r="M198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B199" s="2">
+      <c r="N198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
@@ -8158,8 +8698,11 @@
       <c r="M199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B200">
         <v>0</v>
       </c>
@@ -8196,8 +8739,11 @@
       <c r="M200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B201">
         <v>1</v>
       </c>
@@ -8234,8 +8780,11 @@
       <c r="M201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B202">
         <v>0</v>
       </c>
@@ -8272,8 +8821,11 @@
       <c r="M202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>26</v>
       </c>
@@ -8313,8 +8865,11 @@
       <c r="M203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B204">
         <v>0</v>
       </c>
@@ -8351,8 +8906,11 @@
       <c r="M204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B205">
         <v>1</v>
       </c>
@@ -8389,8 +8947,11 @@
       <c r="M205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B206">
         <v>0</v>
       </c>
@@ -8427,9 +8988,12 @@
       <c r="M206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B207" s="2">
+      <c r="N206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B207">
         <v>1</v>
       </c>
       <c r="C207">
@@ -8465,8 +9029,11 @@
       <c r="M207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B208">
         <v>0</v>
       </c>
@@ -8503,6 +9070,9 @@
       <c r="M208">
         <v>1</v>
       </c>
+      <c r="N208">
+        <v>4</v>
+      </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B209">
@@ -8541,6 +9111,9 @@
       <c r="M209">
         <v>1</v>
       </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B210">
@@ -8578,6 +9151,9 @@
       </c>
       <c r="M210">
         <v>1</v>
+      </c>
+      <c r="N210">
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.45">
@@ -8620,6 +9196,9 @@
       <c r="M211">
         <v>1</v>
       </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B212">
@@ -8658,6 +9237,9 @@
       <c r="M212">
         <v>1</v>
       </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B213">
@@ -8696,6 +9278,9 @@
       <c r="M213">
         <v>1</v>
       </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B214">
@@ -8734,9 +9319,12 @@
       <c r="M214">
         <v>1</v>
       </c>
+      <c r="N214">
+        <v>4</v>
+      </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B215" s="2">
+      <c r="B215">
         <v>1</v>
       </c>
       <c r="C215">
@@ -8772,6 +9360,9 @@
       <c r="M215">
         <v>1</v>
       </c>
+      <c r="N215">
+        <v>4</v>
+      </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B216">
@@ -8810,6 +9401,9 @@
       <c r="M216">
         <v>1</v>
       </c>
+      <c r="N216">
+        <v>4</v>
+      </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B217">
@@ -8848,6 +9442,9 @@
       <c r="M217">
         <v>1</v>
       </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B218">
@@ -8885,6 +9482,9 @@
       </c>
       <c r="M218">
         <v>1</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.45">
@@ -8927,6 +9527,9 @@
       <c r="M219">
         <v>0</v>
       </c>
+      <c r="N219">
+        <v>4</v>
+      </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B220">
@@ -8965,6 +9568,9 @@
       <c r="M220">
         <v>0</v>
       </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B221">
@@ -9003,6 +9609,9 @@
       <c r="M221">
         <v>0</v>
       </c>
+      <c r="N221">
+        <v>4</v>
+      </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B222">
@@ -9041,9 +9650,12 @@
       <c r="M222">
         <v>0</v>
       </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B223" s="2">
+      <c r="B223">
         <v>1</v>
       </c>
       <c r="C223">
@@ -9079,6 +9691,9 @@
       <c r="M223">
         <v>0</v>
       </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B224">
@@ -9117,7 +9732,10 @@
       <c r="M224">
         <v>0</v>
       </c>
-      <c r="O224" s="4"/>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" s="2"/>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B225">
@@ -9156,7 +9774,10 @@
       <c r="M225">
         <v>0</v>
       </c>
-      <c r="O225" s="4"/>
+      <c r="N225">
+        <v>3</v>
+      </c>
+      <c r="O225" s="2"/>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B226">
@@ -9195,7 +9816,10 @@
       <c r="M226">
         <v>0</v>
       </c>
-      <c r="O226" s="4"/>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226" s="2"/>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A227">
@@ -9237,7 +9861,10 @@
       <c r="M227">
         <v>1</v>
       </c>
-      <c r="O227" s="4"/>
+      <c r="N227">
+        <v>4</v>
+      </c>
+      <c r="O227" s="2"/>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B228">
@@ -9276,7 +9903,10 @@
       <c r="M228">
         <v>1</v>
       </c>
-      <c r="O228" s="4"/>
+      <c r="N228">
+        <v>4</v>
+      </c>
+      <c r="O228" s="2"/>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B229">
@@ -9315,7 +9945,10 @@
       <c r="M229">
         <v>1</v>
       </c>
-      <c r="O229" s="4"/>
+      <c r="N229">
+        <v>4</v>
+      </c>
+      <c r="O229" s="2"/>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B230">
@@ -9354,10 +9987,13 @@
       <c r="M230">
         <v>1</v>
       </c>
-      <c r="O230" s="4"/>
+      <c r="N230">
+        <v>4</v>
+      </c>
+      <c r="O230" s="2"/>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B231" s="2">
+      <c r="B231">
         <v>1</v>
       </c>
       <c r="C231">
@@ -9393,7 +10029,10 @@
       <c r="M231">
         <v>1</v>
       </c>
-      <c r="O231" s="4"/>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" s="2"/>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B232">
@@ -9432,7 +10071,10 @@
       <c r="M232">
         <v>1</v>
       </c>
-      <c r="O232" s="4"/>
+      <c r="N232">
+        <v>4</v>
+      </c>
+      <c r="O232" s="2"/>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B233">
@@ -9471,6 +10113,9 @@
       <c r="M233">
         <v>1</v>
       </c>
+      <c r="N233">
+        <v>4</v>
+      </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B234">
@@ -9508,6 +10153,9 @@
       </c>
       <c r="M234">
         <v>1</v>
+      </c>
+      <c r="N234">
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.45">
@@ -9550,6 +10198,9 @@
       <c r="M235">
         <v>0</v>
       </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B236">
@@ -9588,6 +10239,9 @@
       <c r="M236">
         <v>0</v>
       </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B237">
@@ -9626,6 +10280,9 @@
       <c r="M237">
         <v>0</v>
       </c>
+      <c r="N237">
+        <v>4</v>
+      </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B238">
@@ -9664,9 +10321,12 @@
       <c r="M238">
         <v>0</v>
       </c>
+      <c r="N238">
+        <v>4</v>
+      </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B239" s="2">
+      <c r="B239">
         <v>1</v>
       </c>
       <c r="C239">
@@ -9702,6 +10362,9 @@
       <c r="M239">
         <v>0</v>
       </c>
+      <c r="N239">
+        <v>4</v>
+      </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B240">
@@ -9740,8 +10403,11 @@
       <c r="M240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B241">
         <v>1</v>
       </c>
@@ -9778,8 +10444,11 @@
       <c r="M241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B242">
         <v>0</v>
       </c>
@@ -9816,8 +10485,11 @@
       <c r="M242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>31</v>
       </c>
@@ -9857,8 +10529,11 @@
       <c r="M243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B244">
         <v>0</v>
       </c>
@@ -9895,8 +10570,11 @@
       <c r="M244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B245">
         <v>1</v>
       </c>
@@ -9933,8 +10611,11 @@
       <c r="M245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B246">
         <v>0</v>
       </c>
@@ -9971,9 +10652,12 @@
       <c r="M246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B247" s="2">
+      <c r="N246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B247">
         <v>1</v>
       </c>
       <c r="C247">
@@ -10009,8 +10693,11 @@
       <c r="M247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B248">
         <v>0</v>
       </c>
@@ -10047,8 +10734,11 @@
       <c r="M248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B249">
         <v>1</v>
       </c>
@@ -10085,8 +10775,11 @@
       <c r="M249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B250">
         <v>0</v>
       </c>
@@ -10123,8 +10816,11 @@
       <c r="M250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>32</v>
       </c>
@@ -10164,8 +10860,11 @@
       <c r="M251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B252">
         <v>0</v>
       </c>
@@ -10202,8 +10901,11 @@
       <c r="M252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B253">
         <v>1</v>
       </c>
@@ -10240,8 +10942,11 @@
       <c r="M253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B254">
         <v>0</v>
       </c>
@@ -10278,9 +10983,12 @@
       <c r="M254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B255" s="2">
+      <c r="N254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B255">
         <v>1</v>
       </c>
       <c r="C255">
@@ -10316,8 +11024,11 @@
       <c r="M255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B256">
         <v>0</v>
       </c>
@@ -10354,8 +11065,11 @@
       <c r="M256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B257">
         <v>1</v>
       </c>
@@ -10392,8 +11106,11 @@
       <c r="M257">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B258">
         <v>0</v>
       </c>
@@ -10430,8 +11147,11 @@
       <c r="M258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>33</v>
       </c>
@@ -10471,8 +11191,11 @@
       <c r="M259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B260">
         <v>0</v>
       </c>
@@ -10509,8 +11232,11 @@
       <c r="M260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B261">
         <v>1</v>
       </c>
@@ -10547,8 +11273,11 @@
       <c r="M261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B262">
         <v>0</v>
       </c>
@@ -10585,9 +11314,12 @@
       <c r="M262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B263" s="2">
+      <c r="N262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B263">
         <v>1</v>
       </c>
       <c r="C263">
@@ -10623,8 +11355,11 @@
       <c r="M263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B264">
         <v>0</v>
       </c>
@@ -10661,8 +11396,11 @@
       <c r="M264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B265">
         <v>1</v>
       </c>
@@ -10699,8 +11437,11 @@
       <c r="M265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B266">
         <v>0</v>
       </c>
@@ -10737,8 +11478,11 @@
       <c r="M266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>34</v>
       </c>
@@ -10778,8 +11522,11 @@
       <c r="M267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B268">
         <v>0</v>
       </c>
@@ -10816,8 +11563,11 @@
       <c r="M268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B269">
         <v>1</v>
       </c>
@@ -10854,8 +11604,11 @@
       <c r="M269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B270">
         <v>0</v>
       </c>
@@ -10892,9 +11645,12 @@
       <c r="M270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B271" s="2">
+      <c r="N270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B271">
         <v>1</v>
       </c>
       <c r="C271">
@@ -10930,8 +11686,11 @@
       <c r="M271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B272">
         <v>0</v>
       </c>
@@ -10968,8 +11727,11 @@
       <c r="M272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B273">
         <v>1</v>
       </c>
@@ -11006,8 +11768,11 @@
       <c r="M273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B274">
         <v>0</v>
       </c>
@@ -11044,8 +11809,11 @@
       <c r="M274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>35</v>
       </c>
@@ -11085,8 +11853,11 @@
       <c r="M275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B276">
         <v>0</v>
       </c>
@@ -11123,8 +11894,11 @@
       <c r="M276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B277">
         <v>1</v>
       </c>
@@ -11161,8 +11935,11 @@
       <c r="M277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B278">
         <v>0</v>
       </c>
@@ -11199,9 +11976,12 @@
       <c r="M278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B279" s="2">
+      <c r="N278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B279">
         <v>1</v>
       </c>
       <c r="C279">
@@ -11237,8 +12017,11 @@
       <c r="M279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B280">
         <v>0</v>
       </c>
@@ -11275,8 +12058,11 @@
       <c r="M280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B281">
         <v>1</v>
       </c>
@@ -11313,8 +12099,11 @@
       <c r="M281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B282">
         <v>0</v>
       </c>
@@ -11351,8 +12140,11 @@
       <c r="M282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>36</v>
       </c>
@@ -11392,8 +12184,11 @@
       <c r="M283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B284">
         <v>0</v>
       </c>
@@ -11430,8 +12225,11 @@
       <c r="M284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B285">
         <v>1</v>
       </c>
@@ -11468,8 +12266,11 @@
       <c r="M285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B286">
         <v>0</v>
       </c>
@@ -11506,9 +12307,12 @@
       <c r="M286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B287" s="2">
+      <c r="N286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B287">
         <v>1</v>
       </c>
       <c r="C287">
@@ -11544,8 +12348,11 @@
       <c r="M287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B288">
         <v>0</v>
       </c>
@@ -11582,8 +12389,11 @@
       <c r="M288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B289">
         <v>1</v>
       </c>
@@ -11620,8 +12430,11 @@
       <c r="M289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B290">
         <v>0</v>
       </c>
@@ -11658,8 +12471,11 @@
       <c r="M290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>37</v>
       </c>
@@ -11699,8 +12515,11 @@
       <c r="M291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B292">
         <v>0</v>
       </c>
@@ -11737,8 +12556,11 @@
       <c r="M292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B293">
         <v>1</v>
       </c>
@@ -11775,8 +12597,11 @@
       <c r="M293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B294">
         <v>0</v>
       </c>
@@ -11813,9 +12638,12 @@
       <c r="M294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B295" s="2">
+      <c r="N294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B295">
         <v>1</v>
       </c>
       <c r="C295">
@@ -11851,8 +12679,11 @@
       <c r="M295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B296">
         <v>0</v>
       </c>
@@ -11889,8 +12720,11 @@
       <c r="M296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B297">
         <v>1</v>
       </c>
@@ -11927,8 +12761,11 @@
       <c r="M297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B298">
         <v>0</v>
       </c>
@@ -11965,8 +12802,11 @@
       <c r="M298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>38</v>
       </c>
@@ -12006,8 +12846,11 @@
       <c r="M299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B300">
         <v>0</v>
       </c>
@@ -12044,8 +12887,11 @@
       <c r="M300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B301">
         <v>1</v>
       </c>
@@ -12082,8 +12928,11 @@
       <c r="M301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B302">
         <v>0</v>
       </c>
@@ -12120,9 +12969,12 @@
       <c r="M302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B303" s="2">
+      <c r="N302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B303">
         <v>1</v>
       </c>
       <c r="C303">
@@ -12158,8 +13010,11 @@
       <c r="M303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B304">
         <v>0</v>
       </c>
@@ -12196,8 +13051,11 @@
       <c r="M304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B305">
         <v>1</v>
       </c>
@@ -12234,8 +13092,11 @@
       <c r="M305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B306">
         <v>0</v>
       </c>
@@ -12272,8 +13133,11 @@
       <c r="M306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>39</v>
       </c>
@@ -12313,8 +13177,11 @@
       <c r="M307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B308">
         <v>0</v>
       </c>
@@ -12351,8 +13218,11 @@
       <c r="M308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B309">
         <v>1</v>
       </c>
@@ -12389,8 +13259,11 @@
       <c r="M309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B310">
         <v>0</v>
       </c>
@@ -12427,9 +13300,12 @@
       <c r="M310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B311" s="2">
+      <c r="N310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B311">
         <v>1</v>
       </c>
       <c r="C311">
@@ -12465,8 +13341,11 @@
       <c r="M311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B312">
         <v>0</v>
       </c>
@@ -12503,8 +13382,11 @@
       <c r="M312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B313">
         <v>1</v>
       </c>
@@ -12541,8 +13423,11 @@
       <c r="M313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B314">
         <v>0</v>
       </c>
@@ -12579,8 +13464,11 @@
       <c r="M314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>40</v>
       </c>
@@ -12620,8 +13508,11 @@
       <c r="M315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B316">
         <v>0</v>
       </c>
@@ -12658,8 +13549,11 @@
       <c r="M316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B317">
         <v>1</v>
       </c>
@@ -12696,8 +13590,11 @@
       <c r="M317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B318">
         <v>0</v>
       </c>
@@ -12734,9 +13631,12 @@
       <c r="M318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B319" s="2">
+      <c r="N318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B319">
         <v>1</v>
       </c>
       <c r="C319">
@@ -12772,8 +13672,11 @@
       <c r="M319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B320">
         <v>0</v>
       </c>
@@ -12810,8 +13713,11 @@
       <c r="M320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B321">
         <v>1</v>
       </c>
@@ -12848,8 +13754,11 @@
       <c r="M321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B322">
         <v>0</v>
       </c>
@@ -12886,8 +13795,11 @@
       <c r="M322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>41</v>
       </c>
@@ -12927,8 +13839,11 @@
       <c r="M323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B324">
         <v>0</v>
       </c>
@@ -12965,8 +13880,11 @@
       <c r="M324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B325">
         <v>1</v>
       </c>
@@ -13003,8 +13921,11 @@
       <c r="M325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B326">
         <v>0</v>
       </c>
@@ -13041,9 +13962,12 @@
       <c r="M326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B327" s="2">
+      <c r="N326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B327">
         <v>1</v>
       </c>
       <c r="C327">
@@ -13079,8 +14003,11 @@
       <c r="M327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B328">
         <v>0</v>
       </c>
@@ -13117,8 +14044,11 @@
       <c r="M328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B329">
         <v>1</v>
       </c>
@@ -13155,8 +14085,11 @@
       <c r="M329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B330">
         <v>0</v>
       </c>
@@ -13193,8 +14126,11 @@
       <c r="M330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>42</v>
       </c>
@@ -13234,8 +14170,11 @@
       <c r="M331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B332">
         <v>0</v>
       </c>
@@ -13272,8 +14211,11 @@
       <c r="M332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B333">
         <v>1</v>
       </c>
@@ -13310,8 +14252,11 @@
       <c r="M333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B334">
         <v>0</v>
       </c>
@@ -13348,9 +14293,12 @@
       <c r="M334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B335" s="2">
+      <c r="N334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B335">
         <v>1</v>
       </c>
       <c r="C335">
@@ -13386,8 +14334,11 @@
       <c r="M335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B336">
         <v>0</v>
       </c>
@@ -13424,8 +14375,11 @@
       <c r="M336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B337">
         <v>1</v>
       </c>
@@ -13462,8 +14416,11 @@
       <c r="M337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="N337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B338">
         <v>0</v>
       </c>
@@ -13499,6 +14456,9 @@
       </c>
       <c r="M338">
         <v>0</v>
+      </c>
+      <c r="N338">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
